--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_NguyenCuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_NguyenCuong.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="73">
   <si>
     <t>STT</t>
   </si>
@@ -264,7 +264,13 @@
     <t>Thiết bị lỗi module GPS</t>
   </si>
   <si>
-    <t>BG</t>
+    <t>Khách không sửa chữa thiết bị</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -716,6 +722,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -734,31 +764,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,39 +1109,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1177,58 +1186,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1253,23 +1262,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1304,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1326,7 +1335,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1355,7 +1364,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1384,7 +1393,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1413,7 +1422,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1442,7 +1451,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1480,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1502,7 +1511,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1531,7 +1540,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1560,7 +1569,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1589,7 +1598,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3305,13 +3314,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3323,6 +3325,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3366,39 +3375,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3443,58 +3452,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3519,23 +3528,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3561,7 +3570,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3592,7 +3601,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3621,7 +3630,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3650,7 +3659,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3679,7 +3688,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3708,7 +3717,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3737,7 +3746,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3768,7 +3777,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3797,7 +3806,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3826,7 +3835,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3855,7 +3864,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5571,6 +5580,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5582,13 +5598,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5632,39 +5641,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5709,58 +5718,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5785,23 +5794,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5827,7 +5836,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5858,7 +5867,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5887,7 +5896,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5916,7 +5925,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5945,7 +5954,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5974,7 +5983,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6003,7 +6012,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6034,7 +6043,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6063,7 +6072,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6092,7 +6101,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6121,7 +6130,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7837,6 +7846,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7848,13 +7864,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7898,39 +7907,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7975,58 +7984,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8051,23 +8060,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8093,7 +8102,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8124,7 +8133,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8153,7 +8162,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8182,7 +8191,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8211,7 +8220,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8240,7 +8249,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8269,7 +8278,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8300,7 +8309,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8329,7 +8338,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8358,7 +8367,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8387,7 +8396,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10103,6 +10112,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10114,13 +10130,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10164,39 +10173,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10241,58 +10250,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10317,23 +10326,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10359,7 +10368,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10390,7 +10399,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10419,7 +10428,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10448,7 +10457,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10477,7 +10486,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10506,7 +10515,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10535,7 +10544,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10566,7 +10575,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10595,7 +10604,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10624,7 +10633,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10653,7 +10662,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12369,6 +12378,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12380,13 +12396,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12430,39 +12439,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12507,58 +12516,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12583,23 +12592,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12625,7 +12634,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12656,7 +12665,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12685,7 +12694,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12714,7 +12723,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12743,7 +12752,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12772,7 +12781,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12801,7 +12810,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12832,7 +12841,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12861,7 +12870,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12890,7 +12899,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12919,7 +12928,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14635,6 +14644,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14646,13 +14662,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14663,8 +14672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14696,41 +14705,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14775,58 +14784,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14851,23 +14860,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14877,7 +14886,9 @@
       <c r="B6" s="61">
         <v>44921</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44922</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -14901,17 +14912,25 @@
       <c r="L6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="93" t="s">
         <v>70</v>
       </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14942,7 +14961,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14971,7 +14990,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15000,7 +15019,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15029,7 +15048,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15058,7 +15077,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15087,7 +15106,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15118,7 +15137,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15147,7 +15166,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15176,7 +15195,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15205,7 +15224,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15355,7 +15374,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -15568,7 +15587,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -15856,7 +15875,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -15974,7 +15993,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -16921,6 +16940,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16932,13 +16958,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16982,39 +17001,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17059,58 +17078,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17135,23 +17154,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17177,7 +17196,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17208,7 +17227,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17237,7 +17256,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17266,7 +17285,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17295,7 +17314,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17324,7 +17343,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17353,7 +17372,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17384,7 +17403,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17413,7 +17432,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17442,7 +17461,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17471,7 +17490,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19187,6 +19206,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19198,13 +19224,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19248,39 +19267,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19325,58 +19344,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19401,23 +19420,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19443,7 +19462,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19474,7 +19493,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19503,7 +19522,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19532,7 +19551,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19561,7 +19580,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19590,7 +19609,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19619,7 +19638,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19650,7 +19669,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19679,7 +19698,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19708,7 +19727,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19737,7 +19756,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20968,13 +20987,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20986,6 +20998,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
